--- a/Ciencias_de_dados/p2/ quarta-feira, 14 de junho de 2023 Relatório.xlsx
+++ b/Ciencias_de_dados/p2/ quarta-feira, 14 de junho de 2023 Relatório.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NNO 6 km/h</t>
+          <t>NNO 7 km/h</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Ciencias_de_dados/p2/ quarta-feira, 14 de junho de 2023 Relatório.xlsx
+++ b/Ciencias_de_dados/p2/ quarta-feira, 14 de junho de 2023 Relatório.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>11%</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OSO 23 km/h</t>
+          <t>OSO 22 km/h</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18°</t>
+          <t>17°</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ENE 17 km/h</t>
+          <t>E 17 km/h</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>E 16 km/h</t>
+          <t>E 15 km/h</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>24°</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O 16 km/h</t>
+          <t>O 15 km/h</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SSE 16 km/h</t>
+          <t>SSE 15 km/h</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
